--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3613.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3613.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.285152122258686</v>
+        <v>1.559823036193848</v>
       </c>
       <c r="B1">
-        <v>2.347692697280935</v>
+        <v>2.838309526443481</v>
       </c>
       <c r="C1">
-        <v>3.382739267919932</v>
+        <v>3.979631900787354</v>
       </c>
       <c r="D1">
-        <v>3.087019179054568</v>
+        <v>1.517715573310852</v>
       </c>
       <c r="E1">
-        <v>0.9136364338042222</v>
+        <v>0.9957099556922913</v>
       </c>
     </row>
   </sheetData>
